--- a/Bill Of Material.xlsx
+++ b/Bill Of Material.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t xml:space="preserve">BOM</t>
   </si>
@@ -28,35 +28,252 @@
     <t xml:space="preserve">Qty</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana Plug, Red (DC+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banana Plug, Black (DC-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banana Plug, Green (GND)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banana Plug, Color?? (AC L1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banana Plug, Color?? (AC N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuse Holder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuse</t>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Türkçe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direnc.net Fiyat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiyat Toplam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direnc.net Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4mm Protected Born Jack, Red (DC+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4mm Korumalı Born Jak, Kırmızı (DC+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/4mm-korumali-born-jak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4mm Protected Born Jack, Black (DC-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4mm Korumalı Born Jak, Siyah (DC-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4mm Protected Born Jack, Green (GND)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4mm Koumalı Born Jak, Yeşil (Gnd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4mm Protected Born Jack, Brown (AC L1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4mm Korumalı Born Jak, Kahverengi (AC L1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4mm Protected Born Jack, Blue (AC N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4mm Korumalı Born Jak, Mavi (AC N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20mm Fuse Holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20mm Sıgorta Yuvası</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/20mm-kutu-tip-sigorta-yuvasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x20mm Glass Fuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x20mm Cam Sıgorta, 25A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/25a-ufak-cam-sigorta-20mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get several in case of problems. Max 25A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x20mm Cam Sıgorta, 5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/5a-ufak-cam-sigorta-20mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use smaller fuses for testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitor, polyester 100nF 400V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kondensatör, seramik 100nF 400 V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/100nf400v-damla-tip-polyster-kondansator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direnc.net is only 67V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor 1kΩ  0.5W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direnç, 1kΩ 0.5W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/1k-12w-direnc-50-adet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direnc.net minimum 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor 15kΩ 0.5W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direnç, 15kΩ, 0.5W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/15k-14w-direnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direnc.net only has 10kΩ at 0.5W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor, aluminum 3.3Ω 25W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direnç, aluminyum 3.3Ω 25W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/33-ohm-25w-aluminyum-direnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure guess on ratings for this. Must use reduced voltage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potentiometer, 250kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potansiyometre, 250kΩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/220k-potans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potentiometer knob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potansiyometre başlık</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/drn-302-beyaz-pot-basligi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diode bridge, 35A 1000V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diyot Köprü, 25A 600V (min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.robotistan.com/gbj2510-25-a-1000-v-kopru-diyot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat sink (diode bridge)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat sink pad (diode bridge)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screw &amp; nut (diode bridge heat sink)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triac, 25A 600V (BTA26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triyak, 25A 600V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/bta26-600--600v-25a-4-quadrant-logic-level-triac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat sink (triac)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat sink pad (triac)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screw &amp; nut (triac heat sink)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diac, 36V trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diyak 2A 36V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/db3-diac-36v-do-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch, on/off toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anahtar, on/off toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/kts102-on-off-3-ayak-toggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfboard 12x12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delikli plaket, 12x12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/12x12-delikli-plaket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From class inventory. Either 12x12 or 12x25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire Green (for Gnd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/plastik-disi-disi-distanslar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screw / nut for standoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enclosure, size T.B.D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.direnc.net/plastik-kutu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -77,13 +294,31 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,12 +355,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -138,6 +393,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FF99FFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -146,16 +461,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="37.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="52.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -167,64 +484,611 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <f aca="false">D3*A3</f>
+        <v>2.86</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <f aca="false">D4*A4</f>
+        <v>2.86</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <f aca="false">D5*A5</f>
+        <v>2.86</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <f aca="false">D6*A6</f>
+        <v>2.86</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <f aca="false">D7*A7</f>
+        <v>2.86</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <f aca="false">D8*A8</f>
+        <v>1.09</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <f aca="false">D9*A9</f>
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <f aca="false">D10*A10</f>
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="B11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <f aca="false">D11*A11</f>
+        <v>1.32</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <f aca="false">D12*A12</f>
+        <v>0.06</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <f aca="false">D13*A13</f>
+        <v>0.06</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <f aca="false">D14*A14</f>
+        <v>12.96</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <f aca="false">D15*A15</f>
+        <v>1.02</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <f aca="false">D16*A16</f>
+        <v>0.68</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <f aca="false">D19*A19</f>
+        <v>5.8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <f aca="false">D24*A24</f>
+        <v>11.59</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <f aca="false">D29*A29</f>
+        <v>0.14</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <f aca="false">D31*A31</f>
+        <v>4.5</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <f aca="false">D33*A33</f>
+        <v>6.82</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1"/>
+      <c r="B35" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>8</v>
+      <c r="B38" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="1" t="n">
+        <f aca="false">SUM(E3:E42)</f>
+        <v>61.84</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="https://www.direnc.net/4mm-korumali-born-jak"/>
+    <hyperlink ref="F4" r:id="rId2" display="https://www.direnc.net/4mm-korumali-born-jak"/>
+    <hyperlink ref="F5" r:id="rId3" display="https://www.direnc.net/4mm-korumali-born-jak"/>
+    <hyperlink ref="F6" r:id="rId4" display="https://www.direnc.net/4mm-korumali-born-jak"/>
+    <hyperlink ref="F7" r:id="rId5" display="https://www.direnc.net/4mm-korumali-born-jak"/>
+    <hyperlink ref="F8" r:id="rId6" display="https://www.direnc.net/20mm-kutu-tip-sigorta-yuvasi"/>
+    <hyperlink ref="F9" r:id="rId7" display="https://www.direnc.net/25a-ufak-cam-sigorta-20mm"/>
+    <hyperlink ref="F10" r:id="rId8" display="https://www.direnc.net/5a-ufak-cam-sigorta-20mm"/>
+    <hyperlink ref="F11" r:id="rId9" display="https://www.direnc.net/100nf400v-damla-tip-polyster-kondansator"/>
+    <hyperlink ref="F12" r:id="rId10" display="https://www.direnc.net/1k-12w-direnc-50-adet"/>
+    <hyperlink ref="F13" r:id="rId11" display="https://www.direnc.net/15k-14w-direnc"/>
+    <hyperlink ref="F14" r:id="rId12" display="https://www.direnc.net/33-ohm-25w-aluminyum-direnc"/>
+    <hyperlink ref="F15" r:id="rId13" display="https://www.direnc.net/220k-potans"/>
+    <hyperlink ref="F16" r:id="rId14" display="https://www.direnc.net/drn-302-beyaz-pot-basligi"/>
+    <hyperlink ref="F19" r:id="rId15" display="https://www.robotistan.com/gbj2510-25-a-1000-v-kopru-diyot"/>
+    <hyperlink ref="F24" r:id="rId16" display="https://www.direnc.net/bta26-600--600v-25a-4-quadrant-logic-level-triac"/>
+    <hyperlink ref="F29" r:id="rId17" display="https://www.direnc.net/db3-diac-36v-do-35"/>
+    <hyperlink ref="F31" r:id="rId18" display="https://www.direnc.net/kts102-on-off-3-ayak-toggle"/>
+    <hyperlink ref="F33" r:id="rId19" display="https://www.direnc.net/12x12-delikli-plaket"/>
+    <hyperlink ref="F38" r:id="rId20" display="https://www.direnc.net/plastik-disi-disi-distanslar"/>
+    <hyperlink ref="F41" r:id="rId21" display="https://www.direnc.net/plastik-kutu"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Bill Of Material.xlsx
+++ b/Bill Of Material.xlsx
@@ -178,7 +178,7 @@
     <t xml:space="preserve">Diyot Köprü, 25A 600V (min)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.robotistan.com/gbj2510-25-a-1000-v-kopru-diyot</t>
+    <t xml:space="preserve">https://www.direnc.net/35a-1000v-kopru-diyot-lehimlemeye-uygun</t>
   </si>
   <si>
     <t xml:space="preserve">Heat sink (diode bridge)</t>
@@ -278,6 +278,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -299,6 +300,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -464,10 +466,10 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="37.63"/>
@@ -1081,7 +1083,7 @@
     <hyperlink ref="F14" r:id="rId12" display="https://www.direnc.net/33-ohm-25w-aluminyum-direnc"/>
     <hyperlink ref="F15" r:id="rId13" display="https://www.direnc.net/220k-potans"/>
     <hyperlink ref="F16" r:id="rId14" display="https://www.direnc.net/drn-302-beyaz-pot-basligi"/>
-    <hyperlink ref="F19" r:id="rId15" display="https://www.robotistan.com/gbj2510-25-a-1000-v-kopru-diyot"/>
+    <hyperlink ref="F19" r:id="rId15" display="https://www.direnc.net/35a-1000v-kopru-diyot-lehimlemeye-uygun"/>
     <hyperlink ref="F24" r:id="rId16" display="https://www.direnc.net/bta26-600--600v-25a-4-quadrant-logic-level-triac"/>
     <hyperlink ref="F29" r:id="rId17" display="https://www.direnc.net/db3-diac-36v-do-35"/>
     <hyperlink ref="F31" r:id="rId18" display="https://www.direnc.net/kts102-on-off-3-ayak-toggle"/>
